--- a/words/5.28-Unit27.xlsx
+++ b/words/5.28-Unit27.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>logical</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,262 @@
   </si>
   <si>
     <t>specific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be qualified for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prolong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtually</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtuosity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>episode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>morality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participate in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchequer 国库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defendant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probation 试用期；缓刑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precisely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accurate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarkable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parliament</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parliamentary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the House of Lords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Upper House</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lord 君王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Lower House</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chamber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set back 推迟，延缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>committee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commitment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit oneself to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be committed to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faulty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at fault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortcoming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>craftsman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>let along 更不用说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rational</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oprational</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>licence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> sanction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                           </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -618,17 +874,23 @@
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
@@ -638,77 +900,100 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
@@ -718,14 +1003,20 @@
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
@@ -733,19 +1024,27 @@
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
@@ -753,22 +1052,30 @@
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
@@ -778,12 +1085,16 @@
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
@@ -793,39 +1104,57 @@
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
@@ -833,32 +1162,44 @@
       <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
@@ -868,42 +1209,58 @@
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
+      <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
+      <c r="A75" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
+      <c r="A76" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+      <c r="A77" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
@@ -913,9 +1270,13 @@
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
+      <c r="A79" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
@@ -923,7 +1284,9 @@
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
+      <c r="A81" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
@@ -933,12 +1296,16 @@
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
+      <c r="A83" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
+      <c r="A84" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
@@ -948,27 +1315,37 @@
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
+      <c r="A86" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
+      <c r="A87" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
+      <c r="A89" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
+      <c r="A90" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
@@ -978,12 +1355,16 @@
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
+      <c r="A93" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
